--- a/src/test/java/ExcelFiles/selendroidAppKeywords.xlsx
+++ b/src/test/java/ExcelFiles/selendroidAppKeywords.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>email address</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>shahzaib</t>
   </si>
   <si>
@@ -98,16 +92,37 @@
     <t>Select Java Option</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>buttonRegisterUser</t>
   </si>
   <si>
     <t>Register User</t>
+  </si>
+  <si>
+    <t>inputPassword</t>
+  </si>
+  <si>
+    <t>Sign Up Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>shahzaib@gmail.com</t>
+  </si>
+  <si>
+    <t>Shahzaib Khan</t>
+  </si>
+  <si>
+    <t>XPATH</t>
+  </si>
+  <si>
+    <t>//android.widget.CheckedTextView[6]</t>
   </si>
 </sst>
 </file>
@@ -170,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,6 +196,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +526,7 @@
     <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
@@ -524,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -533,93 +552,116 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>123456</v>
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>123456</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/java/ExcelFiles/selendroidAppKeywords.xlsx
+++ b/src/test/java/ExcelFiles/selendroidAppKeywords.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Automation_Projects\Mobile Testing\Mobile Automation Framework\src\test\java\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC3C2059-6C94-4893-B1A1-DFF291C371FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="18000" windowHeight="9480"/>
+    <workbookView xWindow="330" yWindow="330" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sign Up Module" sheetId="1" r:id="rId1"/>
+    <sheet name="SignIn" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,106 +35,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>XPATH</t>
   </si>
   <si>
     <t>Test Data</t>
   </si>
   <si>
+    <t>Sign Up Registration</t>
+  </si>
+  <si>
+    <t>io.selendroid.testapp:id/startUserRegistration</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
     <t>shahzaib</t>
   </si>
   <si>
-    <t>Sign Up Registration</t>
-  </si>
-  <si>
-    <t>startUserRegistration</t>
-  </si>
-  <si>
-    <t>inputUsername</t>
-  </si>
-  <si>
     <t>Sign Up Username</t>
   </si>
   <si>
+    <t>io.selendroid.testapp:id/inputUsername</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>shahzaib@gmail.com</t>
+  </si>
+  <si>
     <t>Sign Up Email</t>
   </si>
   <si>
-    <t>inputEmail</t>
+    <t>io.selendroid.testapp:id/inputEmail</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Sign Up Password</t>
+  </si>
+  <si>
+    <t>io.selendroid.testapp:id/inputPassword</t>
+  </si>
+  <si>
+    <t>Shahzaib Khan</t>
   </si>
   <si>
     <t>Sign Up Name</t>
   </si>
   <si>
-    <t>inputName</t>
-  </si>
-  <si>
-    <t>input_preferedProgrammingLanguage</t>
+    <t>io.selendroid.testapp:id/inputName</t>
   </si>
   <si>
     <t>Sign Up Programming Language Dropdown</t>
   </si>
   <si>
+    <t>io.selendroid.testapp:id/input_preferedProgrammingLanguage</t>
+  </si>
+  <si>
+    <t>Select Java Option</t>
+  </si>
+  <si>
+    <t>//android.widget.CheckedTextView[6]</t>
+  </si>
+  <si>
     <t>TandC Check Box</t>
   </si>
   <si>
-    <t>input_adds</t>
-  </si>
-  <si>
-    <t>btnRegisterUser</t>
+    <t>io.selendroid.testapp:id/input_adds</t>
   </si>
   <si>
     <t>Sign Up Register Button</t>
   </si>
   <si>
-    <t>Select Java Option</t>
-  </si>
-  <si>
-    <t>buttonRegisterUser</t>
+    <t>io.selendroid.testapp:id/btnRegisterUser</t>
   </si>
   <si>
     <t>Register User</t>
   </si>
   <si>
-    <t>inputPassword</t>
-  </si>
-  <si>
-    <t>Sign Up Password</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>shahzaib@gmail.com</t>
-  </si>
-  <si>
-    <t>Shahzaib Khan</t>
-  </si>
-  <si>
-    <t>XPATH</t>
-  </si>
-  <si>
-    <t>//android.widget.CheckedTextView[6]</t>
+    <t>io.selendroid.testapp:id/buttonRegisterUser</t>
+  </si>
+  <si>
+    <t>Sign In CNIC</t>
+  </si>
+  <si>
+    <t>/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.webkit.WebView/android.webkit.WebView/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View[2]/android.view.View[2]/android.view.View[1]/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View[2]/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>CNIC</t>
+  </si>
+  <si>
+    <t>Sign In Password</t>
+  </si>
+  <si>
+    <t>/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.webkit.WebView/android.webkit.WebView/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View[2]/android.view.View[2]/android.view.View[3]/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View[2]/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>Sign In Button</t>
+  </si>
+  <si>
+    <t>/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.webkit.WebView/android.webkit.WebView/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View/android.view.View[2]/android.view.View[2]/android.view.View[7]/android.view.View/android.view.View/android.widget.Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,17 +216,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,154 +551,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC54500-6BCA-42CF-8191-EED6EDF421B0}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="120">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4230126904575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="120">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="108">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>